--- a/biology/Microbiologie/Mélanie_Blokesch/Mélanie_Blokesch.xlsx
+++ b/biology/Microbiologie/Mélanie_Blokesch/Mélanie_Blokesch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9lanie_Blokesch</t>
+          <t>Mélanie_Blokesch</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mélanie Blokesch (née en 1976) est une microbiologiste allemande. Ses recherches portent sur Vibrio cholerae, la bactérie responsable du choléra. Elle est professeure de sciences de la vie à l'École Polytechnique Fédérale de Lausanne, où elle dirige le Laboratoire de Microbiologie Moléculaire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mélanie Blokesch (née en 1976) est une microbiologiste allemande. Ses recherches portent sur Vibrio cholerae, la bactérie responsable du choléra. Elle est professeure de sciences de la vie à l'École Polytechnique Fédérale de Lausanne, où elle dirige le Laboratoire de Microbiologie Moléculaire.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9lanie_Blokesch</t>
+          <t>Mélanie_Blokesch</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mélanie Blokesch étudie la biologie et la microbiologie à l'université Ludwig-Maximilian de Munich, où elle obtient son diplôme en 2000. Elle rejoint ensuite le laboratoire d'August Böck en tant que doctorante et, en 2004, elle obtient son doctorat avec la mention summa cum laude sur sa thèse intitulée Hydrogénases d'Escherichia coli : Fonctions des protéines impliquées dans l'assemblage des centres métalliques[2]. En 2005, elle travaille comme chercheur postdoctoral avec Gary K. Schoolnik dans la division des maladies infectieuses et de la médecine géographique de l'université de Stanford[3]. En 2009, elle est devenue professeure assistant au Global Health Institute de l'École polytechnique fédérale de Lausanne, où elle est promue professeure associée en 2016. Depuis 2009, elle est directrice du laboratoire de microbiologie moléculaire[1],[4]. Mélanie Blokesch est élue membre de l'Organisation européenne de biologie moléculaire (EMBO) en 2019 et de l'Académie européenne de microbiologie en 2018. En 2017, elle est sélectionnée, parmi 25 femmes ayant changé leur vie, par quatre organes de presse allemands (Edition F, ZEIT online, Handelsblatt et Gründerszene). Elle est rédactrice en chef de diverses revues scientifiques telles que eLife, PLoS Genetics, Molecular Microbiology et PLoS Biology. Depuis 2019, elle est membre du Conseil national suisse de la recherche, du Comité spécialisé Interdisciplinarité et du Comité d'évaluation Sinergia du Fonds national suisse de la recherche scientifique[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mélanie Blokesch étudie la biologie et la microbiologie à l'université Ludwig-Maximilian de Munich, où elle obtient son diplôme en 2000. Elle rejoint ensuite le laboratoire d'August Böck en tant que doctorante et, en 2004, elle obtient son doctorat avec la mention summa cum laude sur sa thèse intitulée Hydrogénases d'Escherichia coli : Fonctions des protéines impliquées dans l'assemblage des centres métalliques. En 2005, elle travaille comme chercheur postdoctoral avec Gary K. Schoolnik dans la division des maladies infectieuses et de la médecine géographique de l'université de Stanford. En 2009, elle est devenue professeure assistant au Global Health Institute de l'École polytechnique fédérale de Lausanne, où elle est promue professeure associée en 2016. Depuis 2009, elle est directrice du laboratoire de microbiologie moléculaire,. Mélanie Blokesch est élue membre de l'Organisation européenne de biologie moléculaire (EMBO) en 2019 et de l'Académie européenne de microbiologie en 2018. En 2017, elle est sélectionnée, parmi 25 femmes ayant changé leur vie, par quatre organes de presse allemands (Edition F, ZEIT online, Handelsblatt et Gründerszene). Elle est rédactrice en chef de diverses revues scientifiques telles que eLife, PLoS Genetics, Molecular Microbiology et PLoS Biology. Depuis 2019, elle est membre du Conseil national suisse de la recherche, du Comité spécialisé Interdisciplinarité et du Comité d'évaluation Sinergia du Fonds national suisse de la recherche scientifique.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9lanie_Blokesch</t>
+          <t>Mélanie_Blokesch</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le groupe de recherche de Mélanie Blokesch étudie la bactérie pathogène Vibrio cholerae qui affecte les humains et est responsable de grandes pandémies au cours de l'histoire. Elle s'intéresse à la façon dont l'environnement naturel de la bactérie est lié à son potentiel d'évolution vers un pathogène humain[6].
-Son groupe étudie comment Vibrio cholerae acquiert de nouvelles capacités par transfert horizontal de gènes (THG)[7]. Son équipe scientifique découvre que la fraction pilaire de la machinerie d'absorption de l'ADN permet également l'adhésion à des surfaces chitineuses, comme l'exosquelette des arthropodes, même dans des conditions de courants d'eau[8],[9]. En outre, son équipe découvre que Vibrio cholerae recherche activement de l'ADN en tuant les cellules voisines via le système de sécrétion de type VI (T6SS) tout en étant capable d'épargner les cellules kin[10],[11],[9]. Ainsi, des morceaux d'ADN dépassant même la longueur de 150 kb sont absorbés et échangés contre des régions du génome de la bactérie[12]. Son groupe de chercheurs commencent également à travailler sur les capacités HGT d'Acinetobacter baumannii, un autre pathogène humain, connu pour être fréquemment résistant à une variété d'antibiotiques, et principalement associé à des taux d'infection élevés en milieu hospitalier[6],[13].
-Afin de mieux comprendre l'interaction entre l'hôte et l'agent pathogène, l'équipe de Mélanie Blokesch étudie également les voies de transmission dans les points chauds endémiques du choléra. Elle découvre plusieurs facteurs de virulence qui pourraient être utilisés par le Vibrio cholerae à la manière d'un cheval de Troie pour se répliquer dans les amibes aquatiques, ce qui pourrait faciliter la transmission[14],[15].
-Les recherches de Mélanie Blokesch et de son groupe sont présentées dans des médias internationaux tels que La Razón, la Radio Télévision Suisse, le Times of India, le National Geographic Magazine et Deutschlandfunk[16],[17],[18],[19].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupe de recherche de Mélanie Blokesch étudie la bactérie pathogène Vibrio cholerae qui affecte les humains et est responsable de grandes pandémies au cours de l'histoire. Elle s'intéresse à la façon dont l'environnement naturel de la bactérie est lié à son potentiel d'évolution vers un pathogène humain.
+Son groupe étudie comment Vibrio cholerae acquiert de nouvelles capacités par transfert horizontal de gènes (THG). Son équipe scientifique découvre que la fraction pilaire de la machinerie d'absorption de l'ADN permet également l'adhésion à des surfaces chitineuses, comme l'exosquelette des arthropodes, même dans des conditions de courants d'eau,. En outre, son équipe découvre que Vibrio cholerae recherche activement de l'ADN en tuant les cellules voisines via le système de sécrétion de type VI (T6SS) tout en étant capable d'épargner les cellules kin. Ainsi, des morceaux d'ADN dépassant même la longueur de 150 kb sont absorbés et échangés contre des régions du génome de la bactérie. Son groupe de chercheurs commencent également à travailler sur les capacités HGT d'Acinetobacter baumannii, un autre pathogène humain, connu pour être fréquemment résistant à une variété d'antibiotiques, et principalement associé à des taux d'infection élevés en milieu hospitalier,.
+Afin de mieux comprendre l'interaction entre l'hôte et l'agent pathogène, l'équipe de Mélanie Blokesch étudie également les voies de transmission dans les points chauds endémiques du choléra. Elle découvre plusieurs facteurs de virulence qui pourraient être utilisés par le Vibrio cholerae à la manière d'un cheval de Troie pour se répliquer dans les amibes aquatiques, ce qui pourrait faciliter la transmission,.
+Les recherches de Mélanie Blokesch et de son groupe sont présentées dans des médias internationaux tels que La Razón, la Radio Télévision Suisse, le Times of India, le National Geographic Magazine et Deutschlandfunk.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9lanie_Blokesch</t>
+          <t>Mélanie_Blokesch</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mélanie Blokesch est élue membre de l'Organisation européenne de biologie moléculaire (EMBO) en 2019 et de l'Académie européenne de microbiologie en 2018[20],[21]. En 2017, elle est sélectionnée parmi 25 femmes ayant changé leur vie ("25 Frauen, deren Erfindungen unser Leben verändern") par quatre organes de presse allemands (Edition F, ZEIT online, Handelsblatt et Gründerszene)[22]. Elle est rédactrice en chef de diverses revues scientifiques telles que eLife, PLoS Genetics, Molecular Microbiology et PLoS Biology[23],[24],[25],[26]. Depuis 2019, elle est membre du Conseil national suisse de la recherche, du Comité spécialisé Interdisciplinarité et du Comité d'évaluation Sinergia du Fonds national suisse de la recherche scientifique[27],[28].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mélanie Blokesch est élue membre de l'Organisation européenne de biologie moléculaire (EMBO) en 2019 et de l'Académie européenne de microbiologie en 2018,. En 2017, elle est sélectionnée parmi 25 femmes ayant changé leur vie ("25 Frauen, deren Erfindungen unser Leben verändern") par quatre organes de presse allemands (Edition F, ZEIT online, Handelsblatt et Gründerszene). Elle est rédactrice en chef de diverses revues scientifiques telles que eLife, PLoS Genetics, Molecular Microbiology et PLoS Biology. Depuis 2019, elle est membre du Conseil national suisse de la recherche, du Comité spécialisé Interdisciplinarité et du Comité d'évaluation Sinergia du Fonds national suisse de la recherche scientifique,.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9lanie_Blokesch</t>
+          <t>Mélanie_Blokesch</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Sélection de travaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>R. Gary Sawers, Melanie Blokesch et August Böck, « Anaerobic Formate and Hydrogen Metabolism », Ecosal Plus, vol. 1, no 1,‎ 2004 (PMID 26443350, DOI 10.1128/ecosalplus.3.5.4)
 K. L. Meibom, M. Blokesch, N. A. Dolganov, C. Y. Wu et G. K. Schoolnik, « Chitin Induces Natural Competence in Vibrio cholerae », Science, vol. 310, no 5755,‎ 2005, p. 1824–1827 (PMID 16357262, DOI 10.1126/science.1120096, Bibcode 2005Sci...310.1824M, S2CID 31153549)
